--- a/Code/Results/Cases/Case_0_178/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_178/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9914217370056569</v>
+        <v>1.033083325388348</v>
       </c>
       <c r="D2">
-        <v>1.006876607848259</v>
+        <v>1.041284524813878</v>
       </c>
       <c r="E2">
-        <v>1.007762956928713</v>
+        <v>1.041860442800671</v>
       </c>
       <c r="F2">
-        <v>1.016005746449545</v>
+        <v>1.051427521299317</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046369547746702</v>
+        <v>1.02733236633473</v>
       </c>
       <c r="J2">
-        <v>1.013862085116848</v>
+        <v>1.038209999563212</v>
       </c>
       <c r="K2">
-        <v>1.018240964761681</v>
+        <v>1.044064474674538</v>
       </c>
       <c r="L2">
-        <v>1.019115190569496</v>
+        <v>1.044638762988611</v>
       </c>
       <c r="M2">
-        <v>1.027246509948717</v>
+        <v>1.0541790527236</v>
       </c>
       <c r="N2">
-        <v>1.008229207218564</v>
+        <v>1.016646001481358</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9962436915338256</v>
+        <v>1.034122276959878</v>
       </c>
       <c r="D3">
-        <v>1.010919339240227</v>
+        <v>1.042205332277166</v>
       </c>
       <c r="E3">
-        <v>1.011769927146829</v>
+        <v>1.042773807360731</v>
       </c>
       <c r="F3">
-        <v>1.020320559979223</v>
+        <v>1.052402219717811</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046653356102796</v>
+        <v>1.027293588095579</v>
       </c>
       <c r="J3">
-        <v>1.016837283744327</v>
+        <v>1.038891062454806</v>
       </c>
       <c r="K3">
-        <v>1.021414385797916</v>
+        <v>1.044795589009561</v>
       </c>
       <c r="L3">
-        <v>1.022254392380839</v>
+        <v>1.045362572105777</v>
       </c>
       <c r="M3">
-        <v>1.030699873436033</v>
+        <v>1.054965978487567</v>
       </c>
       <c r="N3">
-        <v>1.009262740012566</v>
+        <v>1.016877661532564</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9993014521471061</v>
+        <v>1.034795240108966</v>
       </c>
       <c r="D4">
-        <v>1.013488356412139</v>
+        <v>1.04280198210633</v>
       </c>
       <c r="E4">
-        <v>1.01431644846998</v>
+        <v>1.04336564257405</v>
       </c>
       <c r="F4">
-        <v>1.023060331679343</v>
+        <v>1.053033470350272</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046815317237951</v>
+        <v>1.027266154843311</v>
       </c>
       <c r="J4">
-        <v>1.018723043745022</v>
+        <v>1.039331876145136</v>
       </c>
       <c r="K4">
-        <v>1.023426669585824</v>
+        <v>1.045268866121904</v>
       </c>
       <c r="L4">
-        <v>1.02424510347992</v>
+        <v>1.045831121922233</v>
       </c>
       <c r="M4">
-        <v>1.03288818283132</v>
+        <v>1.055475108838508</v>
       </c>
       <c r="N4">
-        <v>1.009917054649161</v>
+        <v>1.017027454892993</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000572571192083</v>
+        <v>1.035078318932007</v>
       </c>
       <c r="D5">
-        <v>1.014557540637901</v>
+        <v>1.043053010270241</v>
       </c>
       <c r="E5">
-        <v>1.015376322449053</v>
+        <v>1.043614646992806</v>
       </c>
       <c r="F5">
-        <v>1.024200056338669</v>
+        <v>1.053298979754213</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046878242024541</v>
+        <v>1.027254060371935</v>
       </c>
       <c r="J5">
-        <v>1.019506699845015</v>
+        <v>1.039517222266748</v>
       </c>
       <c r="K5">
-        <v>1.024263111196227</v>
+        <v>1.045467878103157</v>
       </c>
       <c r="L5">
-        <v>1.025072606326068</v>
+        <v>1.046028146452947</v>
       </c>
       <c r="M5">
-        <v>1.033797419819803</v>
+        <v>1.055689130845623</v>
       </c>
       <c r="N5">
-        <v>1.01018877397511</v>
+        <v>1.017090402231243</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00078517133716</v>
+        <v>1.035125858778473</v>
       </c>
       <c r="D6">
-        <v>1.014736437456994</v>
+        <v>1.043095170498022</v>
       </c>
       <c r="E6">
-        <v>1.015553664456417</v>
+        <v>1.043656467442851</v>
       </c>
       <c r="F6">
-        <v>1.024390724894444</v>
+        <v>1.053343567630933</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046888505311363</v>
+        <v>1.027251996697445</v>
       </c>
       <c r="J6">
-        <v>1.019637753318364</v>
+        <v>1.039548344317778</v>
       </c>
       <c r="K6">
-        <v>1.0244030041549</v>
+        <v>1.045501295777294</v>
       </c>
       <c r="L6">
-        <v>1.025211005906909</v>
+        <v>1.046061230419332</v>
       </c>
       <c r="M6">
-        <v>1.03394946526791</v>
+        <v>1.055725065084636</v>
       </c>
       <c r="N6">
-        <v>1.010234203083607</v>
+        <v>1.017100969843193</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9993184926110243</v>
+        <v>1.034799021973953</v>
       </c>
       <c r="D7">
-        <v>1.013502684948378</v>
+        <v>1.04280533558596</v>
       </c>
       <c r="E7">
-        <v>1.01433065203379</v>
+        <v>1.043368969011076</v>
       </c>
       <c r="F7">
-        <v>1.023075607640064</v>
+        <v>1.053037017584413</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046816178296867</v>
+        <v>1.027265995444184</v>
       </c>
       <c r="J7">
-        <v>1.018733550417664</v>
+        <v>1.039334352639881</v>
       </c>
       <c r="K7">
-        <v>1.023437883158049</v>
+        <v>1.045271525149064</v>
       </c>
       <c r="L7">
-        <v>1.024256197107186</v>
+        <v>1.045833754393377</v>
       </c>
       <c r="M7">
-        <v>1.03290037381228</v>
+        <v>1.055477968677048</v>
       </c>
       <c r="N7">
-        <v>1.009920698421978</v>
+        <v>1.017028296100212</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9930646034079061</v>
+        <v>1.033434300317005</v>
       </c>
       <c r="D8">
-        <v>1.008252824501733</v>
+        <v>1.041595544335294</v>
       </c>
       <c r="E8">
-        <v>1.009126950126915</v>
+        <v>1.042168946644643</v>
       </c>
       <c r="F8">
-        <v>1.017475027120056</v>
+        <v>1.051756809334419</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046469968539069</v>
+        <v>1.02731974516229</v>
       </c>
       <c r="J8">
-        <v>1.014875917588214</v>
+        <v>1.038440142538302</v>
       </c>
       <c r="K8">
-        <v>1.019322154535631</v>
+        <v>1.044311516780978</v>
       </c>
       <c r="L8">
-        <v>1.020184694213626</v>
+        <v>1.04488333632153</v>
       </c>
       <c r="M8">
-        <v>1.02842337859808</v>
+        <v>1.054445010311114</v>
       </c>
       <c r="N8">
-        <v>1.00858155132558</v>
+        <v>1.016724313843911</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9815397465899421</v>
+        <v>1.031034810697724</v>
       </c>
       <c r="D9">
-        <v>0.9986237997371691</v>
+        <v>1.039470112173963</v>
       </c>
       <c r="E9">
-        <v>0.999584539557032</v>
+        <v>1.040060740659577</v>
       </c>
       <c r="F9">
-        <v>1.007186232841066</v>
+        <v>1.049505234159502</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04569249520439</v>
+        <v>1.02739657497971</v>
       </c>
       <c r="J9">
-        <v>1.0077616589381</v>
+        <v>1.036865387506529</v>
       </c>
       <c r="K9">
-        <v>1.011739244361195</v>
+        <v>1.042621411398038</v>
       </c>
       <c r="L9">
-        <v>1.012684360915266</v>
+        <v>1.04321012843336</v>
       </c>
       <c r="M9">
-        <v>1.020163784541492</v>
+        <v>1.052624376494518</v>
       </c>
       <c r="N9">
-        <v>1.006106136270489</v>
+        <v>1.016187861319516</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9734767545591304</v>
+        <v>1.029438761604544</v>
       </c>
       <c r="D10">
-        <v>0.9919221053437831</v>
+        <v>1.03805750917663</v>
       </c>
       <c r="E10">
-        <v>0.9929446547853685</v>
+        <v>1.038659631503711</v>
       </c>
       <c r="F10">
-        <v>1.000014888277713</v>
+        <v>1.04800716534549</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045059518167687</v>
+        <v>1.027435832536215</v>
       </c>
       <c r="J10">
-        <v>1.002783701952768</v>
+        <v>1.035816240430935</v>
       </c>
       <c r="K10">
-        <v>1.006438756604788</v>
+        <v>1.041495772584287</v>
       </c>
       <c r="L10">
-        <v>1.00744247492818</v>
+        <v>1.042095754364369</v>
       </c>
       <c r="M10">
-        <v>1.014383873917303</v>
+        <v>1.051410405220917</v>
       </c>
       <c r="N10">
-        <v>1.004370641028168</v>
+        <v>1.015829712085464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9698854717145672</v>
+        <v>1.02874851700642</v>
       </c>
       <c r="D11">
-        <v>0.9889464122478298</v>
+        <v>1.03744688217315</v>
       </c>
       <c r="E11">
-        <v>0.9899968183368838</v>
+        <v>1.03805398410695</v>
       </c>
       <c r="F11">
-        <v>0.9968283422958999</v>
+        <v>1.047359208568668</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04475770025339</v>
+        <v>1.027450007092135</v>
       </c>
       <c r="J11">
-        <v>1.000567023036125</v>
+        <v>1.03536212105457</v>
       </c>
       <c r="K11">
-        <v>1.004079837628298</v>
+        <v>1.0410086301701</v>
       </c>
       <c r="L11">
-        <v>1.005109878165465</v>
+        <v>1.041613489865786</v>
       </c>
       <c r="M11">
-        <v>1.011810320328953</v>
+        <v>1.050884706224684</v>
       </c>
       <c r="N11">
-        <v>1.003597129894938</v>
+        <v>1.015674511988107</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9685355813337775</v>
+        <v>1.028492258309641</v>
       </c>
       <c r="D12">
-        <v>0.9878293893337758</v>
+        <v>1.037220225324184</v>
       </c>
       <c r="E12">
-        <v>0.9888903187159794</v>
+        <v>1.03782917734006</v>
       </c>
       <c r="F12">
-        <v>0.9956318350006028</v>
+        <v>1.047118637555887</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04464137372402</v>
+        <v>1.02745484885297</v>
       </c>
       <c r="J12">
-        <v>0.9997339580028509</v>
+        <v>1.035193466879897</v>
       </c>
       <c r="K12">
-        <v>1.00319353351107</v>
+        <v>1.04082772470032</v>
       </c>
       <c r="L12">
-        <v>1.004233503371036</v>
+        <v>1.041434396320897</v>
       </c>
       <c r="M12">
-        <v>1.010843203393928</v>
+        <v>1.050689433153749</v>
       </c>
       <c r="N12">
-        <v>1.003306336554272</v>
+        <v>1.015616846207986</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9688258735623246</v>
+        <v>1.028547220831454</v>
       </c>
       <c r="D13">
-        <v>0.988069535384315</v>
+        <v>1.037268836856856</v>
       </c>
       <c r="E13">
-        <v>0.9891281993133102</v>
+        <v>1.037877392003723</v>
       </c>
       <c r="F13">
-        <v>0.9958890840567535</v>
+        <v>1.047170235902489</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044666517897834</v>
+        <v>1.02745382941801</v>
       </c>
       <c r="J13">
-        <v>0.9999131002587707</v>
+        <v>1.035229642585803</v>
       </c>
       <c r="K13">
-        <v>1.003384114330239</v>
+        <v>1.040866527672539</v>
       </c>
       <c r="L13">
-        <v>1.004421947269315</v>
+        <v>1.041472810626521</v>
       </c>
       <c r="M13">
-        <v>1.011051168574907</v>
+        <v>1.050731320100458</v>
       </c>
       <c r="N13">
-        <v>1.003368872864526</v>
+        <v>1.015629216502423</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9697742197920862</v>
+        <v>1.028727331951169</v>
       </c>
       <c r="D14">
-        <v>0.9888543216194742</v>
+        <v>1.037428143434245</v>
       </c>
       <c r="E14">
-        <v>0.9899055939024488</v>
+        <v>1.038035398287378</v>
       </c>
       <c r="F14">
-        <v>0.9967297054474038</v>
+        <v>1.047339320663072</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044748171021368</v>
+        <v>1.02745041594301</v>
       </c>
       <c r="J14">
-        <v>1.000498362341196</v>
+        <v>1.035348179513776</v>
       </c>
       <c r="K14">
-        <v>1.004006784532578</v>
+        <v>1.04099367562797</v>
       </c>
       <c r="L14">
-        <v>1.005037642669002</v>
+        <v>1.041598685096809</v>
       </c>
       <c r="M14">
-        <v>1.011730609595746</v>
+        <v>1.050868564988146</v>
       </c>
       <c r="N14">
-        <v>1.003573164762588</v>
+        <v>1.015669745672845</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9703563881776449</v>
+        <v>1.028838321446296</v>
       </c>
       <c r="D15">
-        <v>0.989336282026977</v>
+        <v>1.037526318337329</v>
       </c>
       <c r="E15">
-        <v>0.9903830237807003</v>
+        <v>1.038132772095009</v>
       </c>
       <c r="F15">
-        <v>0.9972459122602624</v>
+        <v>1.047443513844251</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044797919688228</v>
+        <v>1.027448256726937</v>
       </c>
       <c r="J15">
-        <v>1.000857661846014</v>
+        <v>1.035421217491254</v>
       </c>
       <c r="K15">
-        <v>1.004389078255383</v>
+        <v>1.041072021126693</v>
       </c>
       <c r="L15">
-        <v>1.005415659443282</v>
+        <v>1.041676245966469</v>
       </c>
       <c r="M15">
-        <v>1.012147736593618</v>
+        <v>1.050953125457865</v>
       </c>
       <c r="N15">
-        <v>1.003698569823335</v>
+        <v>1.015694714716571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9737129140293243</v>
+        <v>1.029484588916931</v>
       </c>
       <c r="D16">
-        <v>0.9921179844870163</v>
+        <v>1.03809805646853</v>
       </c>
       <c r="E16">
-        <v>0.9931387091922782</v>
+        <v>1.03869984837484</v>
       </c>
       <c r="F16">
-        <v>1.000224599953315</v>
+        <v>1.048050183316216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04507896022866</v>
+        <v>1.027434832400708</v>
       </c>
       <c r="J16">
-        <v>1.00292948467175</v>
+        <v>1.035846382443053</v>
       </c>
       <c r="K16">
-        <v>1.006593923508484</v>
+        <v>1.041528108312407</v>
       </c>
       <c r="L16">
-        <v>1.007595915686768</v>
+        <v>1.04212776636726</v>
       </c>
       <c r="M16">
-        <v>1.014553134537804</v>
+        <v>1.051445293358803</v>
       </c>
       <c r="N16">
-        <v>1.004421498274401</v>
+        <v>1.015840009724362</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9757909913113026</v>
+        <v>1.029890204664883</v>
       </c>
       <c r="D17">
-        <v>0.9938426808703584</v>
+        <v>1.038456971713958</v>
       </c>
       <c r="E17">
-        <v>0.9948473864282572</v>
+        <v>1.039055840106923</v>
       </c>
       <c r="F17">
-        <v>1.002070827820661</v>
+        <v>1.048430923886227</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04524778946156</v>
+        <v>1.027425656265166</v>
       </c>
       <c r="J17">
-        <v>1.004212361058332</v>
+        <v>1.036113122723286</v>
       </c>
       <c r="K17">
-        <v>1.00795953843854</v>
+        <v>1.041814271740535</v>
       </c>
       <c r="L17">
-        <v>1.008946366841549</v>
+        <v>1.042411065240536</v>
       </c>
       <c r="M17">
-        <v>1.016042645087953</v>
+        <v>1.051754007013925</v>
       </c>
       <c r="N17">
-        <v>1.004868959847094</v>
+        <v>1.015931117795056</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9769935195376164</v>
+        <v>1.030126875954799</v>
       </c>
       <c r="D18">
-        <v>0.9948415897044602</v>
+        <v>1.038666421122527</v>
       </c>
       <c r="E18">
-        <v>0.9958370561354548</v>
+        <v>1.039263584537949</v>
       </c>
       <c r="F18">
-        <v>1.003139903872242</v>
+        <v>1.048653072504421</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045343592389397</v>
+        <v>1.027420031416848</v>
       </c>
       <c r="J18">
-        <v>1.004954772659876</v>
+        <v>1.03626872400021</v>
       </c>
       <c r="K18">
-        <v>1.00874996208446</v>
+        <v>1.041981211694184</v>
       </c>
       <c r="L18">
-        <v>1.009728036411077</v>
+        <v>1.042576334366507</v>
       </c>
       <c r="M18">
-        <v>1.016904657701506</v>
+        <v>1.051934070390959</v>
       </c>
       <c r="N18">
-        <v>1.005127842916586</v>
+        <v>1.015984248075403</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9774019523720227</v>
+        <v>1.030207588727693</v>
       </c>
       <c r="D19">
-        <v>0.9951810097075175</v>
+        <v>1.038737854925088</v>
       </c>
       <c r="E19">
-        <v>0.9961733432255334</v>
+        <v>1.039334437030154</v>
       </c>
       <c r="F19">
-        <v>1.003503128084758</v>
+        <v>1.048728831121593</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045375806922092</v>
+        <v>1.027418067226576</v>
       </c>
       <c r="J19">
-        <v>1.005206934989879</v>
+        <v>1.036321782738218</v>
       </c>
       <c r="K19">
-        <v>1.009018453720973</v>
+        <v>1.042038138231888</v>
       </c>
       <c r="L19">
-        <v>1.009993558233679</v>
+        <v>1.042632691197749</v>
       </c>
       <c r="M19">
-        <v>1.017197445333177</v>
+        <v>1.051995466622592</v>
       </c>
       <c r="N19">
-        <v>1.005215761712109</v>
+        <v>1.016002362164293</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.975569030464161</v>
+        <v>1.029846677398914</v>
       </c>
       <c r="D20">
-        <v>0.9936583737160063</v>
+        <v>1.038418453131197</v>
       </c>
       <c r="E20">
-        <v>0.9946647870774766</v>
+        <v>1.039017635162547</v>
       </c>
       <c r="F20">
-        <v>1.001873556237036</v>
+        <v>1.048390066871247</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045229952447717</v>
+        <v>1.027426668962902</v>
       </c>
       <c r="J20">
-        <v>1.004075331057438</v>
+        <v>1.036084502336447</v>
       </c>
       <c r="K20">
-        <v>1.007813657140261</v>
+        <v>1.041783566451774</v>
       </c>
       <c r="L20">
-        <v>1.008802103023538</v>
+        <v>1.042380667289332</v>
       </c>
       <c r="M20">
-        <v>1.015883541224595</v>
+        <v>1.051720885373376</v>
       </c>
       <c r="N20">
-        <v>1.004821171253738</v>
+        <v>1.015921343949963</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9694954028172627</v>
+        <v>1.028674290154623</v>
       </c>
       <c r="D21">
-        <v>0.9886235503777264</v>
+        <v>1.037381227269681</v>
       </c>
       <c r="E21">
-        <v>0.9896769943543562</v>
+        <v>1.037988865014684</v>
       </c>
       <c r="F21">
-        <v>0.9964825246073566</v>
+        <v>1.047289526396651</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044724243079243</v>
+        <v>1.027451432803445</v>
       </c>
       <c r="J21">
-        <v>1.000326288972347</v>
+        <v>1.035313272620049</v>
       </c>
       <c r="K21">
-        <v>1.003823706719265</v>
+        <v>1.040956232587902</v>
       </c>
       <c r="L21">
-        <v>1.004856614480664</v>
+        <v>1.041561617064849</v>
       </c>
       <c r="M21">
-        <v>1.01153084447631</v>
+        <v>1.050828149919698</v>
       </c>
       <c r="N21">
-        <v>1.003513103271669</v>
+        <v>1.015657811324139</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9655840149864579</v>
+        <v>1.027937909623808</v>
       </c>
       <c r="D22">
-        <v>0.9853898158354084</v>
+        <v>1.036729992280887</v>
       </c>
       <c r="E22">
-        <v>0.9864738553041792</v>
+        <v>1.037342948996361</v>
       </c>
       <c r="F22">
-        <v>0.9930180706879596</v>
+        <v>1.046598204101677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044381851410172</v>
+        <v>1.027464554218061</v>
       </c>
       <c r="J22">
-        <v>0.9979127697649756</v>
+        <v>1.034828520558251</v>
       </c>
       <c r="K22">
-        <v>1.001256367818286</v>
+        <v>1.040436292084302</v>
       </c>
       <c r="L22">
-        <v>1.002318115846089</v>
+        <v>1.041046885111655</v>
       </c>
       <c r="M22">
-        <v>1.00872912153139</v>
+        <v>1.050266823025508</v>
       </c>
       <c r="N22">
-        <v>1.002670461162768</v>
+        <v>1.015492016511784</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9676666209953155</v>
+        <v>1.028328208042741</v>
       </c>
       <c r="D23">
-        <v>0.987110760386146</v>
+        <v>1.037075137655422</v>
       </c>
       <c r="E23">
-        <v>0.9881784791528011</v>
+        <v>1.037685274434744</v>
       </c>
       <c r="F23">
-        <v>0.9948619780991319</v>
+        <v>1.046964626875541</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044565693817471</v>
+        <v>1.027457830072975</v>
       </c>
       <c r="J23">
-        <v>0.9991977392097994</v>
+        <v>1.035085482279923</v>
       </c>
       <c r="K23">
-        <v>1.002623108729355</v>
+        <v>1.040711899619378</v>
       </c>
       <c r="L23">
-        <v>1.003669480596506</v>
+        <v>1.041319731461187</v>
       </c>
       <c r="M23">
-        <v>1.010220722651521</v>
+        <v>1.050564395362462</v>
       </c>
       <c r="N23">
-        <v>1.003119136175283</v>
+        <v>1.015579916975261</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9756693545523895</v>
+        <v>1.029866345241864</v>
       </c>
       <c r="D24">
-        <v>0.9937416760113086</v>
+        <v>1.038435857711133</v>
       </c>
       <c r="E24">
-        <v>0.9947473173675893</v>
+        <v>1.039034898022004</v>
       </c>
       <c r="F24">
-        <v>1.001962718822224</v>
+        <v>1.048408528184251</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045238020481014</v>
+        <v>1.027426212210668</v>
       </c>
       <c r="J24">
-        <v>1.004137267115541</v>
+        <v>1.036097434607322</v>
       </c>
       <c r="K24">
-        <v>1.007879593483711</v>
+        <v>1.041797440770798</v>
       </c>
       <c r="L24">
-        <v>1.008867308217721</v>
+        <v>1.042394402735689</v>
       </c>
       <c r="M24">
-        <v>1.015955454366823</v>
+        <v>1.051735851629684</v>
       </c>
       <c r="N24">
-        <v>1.004842771381847</v>
+        <v>1.015925760365454</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.984583000422228</v>
+        <v>1.031654502158514</v>
       </c>
       <c r="D25">
-        <v>1.001160724298863</v>
+        <v>1.040018825126043</v>
       </c>
       <c r="E25">
-        <v>1.00209839590394</v>
+        <v>1.040604998631088</v>
       </c>
       <c r="F25">
-        <v>1.009898842918309</v>
+        <v>1.050086800683031</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045913533684514</v>
+        <v>1.027378825560503</v>
       </c>
       <c r="J25">
-        <v>1.009640585427944</v>
+        <v>1.037272381243577</v>
       </c>
       <c r="K25">
-        <v>1.013741048200913</v>
+        <v>1.043058154601287</v>
       </c>
       <c r="L25">
-        <v>1.014664224082105</v>
+        <v>1.043642503344677</v>
       </c>
       <c r="M25">
-        <v>1.022345411275812</v>
+        <v>1.053095097291619</v>
       </c>
       <c r="N25">
-        <v>1.006760534192534</v>
+        <v>1.016326639371141</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_178/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_178/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033083325388348</v>
+        <v>0.9914217370056572</v>
       </c>
       <c r="D2">
-        <v>1.041284524813878</v>
+        <v>1.006876607848259</v>
       </c>
       <c r="E2">
-        <v>1.041860442800671</v>
+        <v>1.007762956928713</v>
       </c>
       <c r="F2">
-        <v>1.051427521299317</v>
+        <v>1.016005746449545</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02733236633473</v>
+        <v>1.046369547746702</v>
       </c>
       <c r="J2">
-        <v>1.038209999563212</v>
+        <v>1.013862085116848</v>
       </c>
       <c r="K2">
-        <v>1.044064474674538</v>
+        <v>1.018240964761681</v>
       </c>
       <c r="L2">
-        <v>1.044638762988611</v>
+        <v>1.019115190569496</v>
       </c>
       <c r="M2">
-        <v>1.0541790527236</v>
+        <v>1.027246509948718</v>
       </c>
       <c r="N2">
-        <v>1.016646001481358</v>
+        <v>1.008229207218564</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034122276959878</v>
+        <v>0.9962436915338249</v>
       </c>
       <c r="D3">
-        <v>1.042205332277166</v>
+        <v>1.010919339240226</v>
       </c>
       <c r="E3">
-        <v>1.042773807360731</v>
+        <v>1.011769927146828</v>
       </c>
       <c r="F3">
-        <v>1.052402219717811</v>
+        <v>1.020320559979222</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027293588095579</v>
+        <v>1.046653356102796</v>
       </c>
       <c r="J3">
-        <v>1.038891062454806</v>
+        <v>1.016837283744326</v>
       </c>
       <c r="K3">
-        <v>1.044795589009561</v>
+        <v>1.021414385797915</v>
       </c>
       <c r="L3">
-        <v>1.045362572105777</v>
+        <v>1.022254392380838</v>
       </c>
       <c r="M3">
-        <v>1.054965978487567</v>
+        <v>1.030699873436032</v>
       </c>
       <c r="N3">
-        <v>1.016877661532564</v>
+        <v>1.009262740012566</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034795240108966</v>
+        <v>0.9993014521471062</v>
       </c>
       <c r="D4">
-        <v>1.04280198210633</v>
+        <v>1.013488356412139</v>
       </c>
       <c r="E4">
-        <v>1.04336564257405</v>
+        <v>1.01431644846998</v>
       </c>
       <c r="F4">
-        <v>1.053033470350272</v>
+        <v>1.023060331679344</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027266154843311</v>
+        <v>1.046815317237951</v>
       </c>
       <c r="J4">
-        <v>1.039331876145136</v>
+        <v>1.018723043745023</v>
       </c>
       <c r="K4">
-        <v>1.045268866121904</v>
+        <v>1.023426669585824</v>
       </c>
       <c r="L4">
-        <v>1.045831121922233</v>
+        <v>1.02424510347992</v>
       </c>
       <c r="M4">
-        <v>1.055475108838508</v>
+        <v>1.03288818283132</v>
       </c>
       <c r="N4">
-        <v>1.017027454892993</v>
+        <v>1.009917054649161</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035078318932007</v>
+        <v>1.000572571192083</v>
       </c>
       <c r="D5">
-        <v>1.043053010270241</v>
+        <v>1.014557540637901</v>
       </c>
       <c r="E5">
-        <v>1.043614646992806</v>
+        <v>1.015376322449054</v>
       </c>
       <c r="F5">
-        <v>1.053298979754213</v>
+        <v>1.024200056338669</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027254060371935</v>
+        <v>1.046878242024542</v>
       </c>
       <c r="J5">
-        <v>1.039517222266748</v>
+        <v>1.019506699845015</v>
       </c>
       <c r="K5">
-        <v>1.045467878103157</v>
+        <v>1.024263111196228</v>
       </c>
       <c r="L5">
-        <v>1.046028146452947</v>
+        <v>1.025072606326068</v>
       </c>
       <c r="M5">
-        <v>1.055689130845623</v>
+        <v>1.033797419819803</v>
       </c>
       <c r="N5">
-        <v>1.017090402231243</v>
+        <v>1.01018877397511</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035125858778473</v>
+        <v>1.000785171337159</v>
       </c>
       <c r="D6">
-        <v>1.043095170498022</v>
+        <v>1.014736437456994</v>
       </c>
       <c r="E6">
-        <v>1.043656467442851</v>
+        <v>1.015553664456417</v>
       </c>
       <c r="F6">
-        <v>1.053343567630933</v>
+        <v>1.024390724894444</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027251996697445</v>
+        <v>1.046888505311363</v>
       </c>
       <c r="J6">
-        <v>1.039548344317778</v>
+        <v>1.019637753318364</v>
       </c>
       <c r="K6">
-        <v>1.045501295777294</v>
+        <v>1.024403004154899</v>
       </c>
       <c r="L6">
-        <v>1.046061230419332</v>
+        <v>1.025211005906909</v>
       </c>
       <c r="M6">
-        <v>1.055725065084636</v>
+        <v>1.03394946526791</v>
       </c>
       <c r="N6">
-        <v>1.017100969843193</v>
+        <v>1.010234203083607</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034799021973953</v>
+        <v>0.9993184926110231</v>
       </c>
       <c r="D7">
-        <v>1.04280533558596</v>
+        <v>1.013502684948376</v>
       </c>
       <c r="E7">
-        <v>1.043368969011076</v>
+        <v>1.014330652033788</v>
       </c>
       <c r="F7">
-        <v>1.053037017584413</v>
+        <v>1.023075607640062</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027265995444184</v>
+        <v>1.046816178296867</v>
       </c>
       <c r="J7">
-        <v>1.039334352639881</v>
+        <v>1.018733550417663</v>
       </c>
       <c r="K7">
-        <v>1.045271525149064</v>
+        <v>1.023437883158048</v>
       </c>
       <c r="L7">
-        <v>1.045833754393377</v>
+        <v>1.024256197107184</v>
       </c>
       <c r="M7">
-        <v>1.055477968677048</v>
+        <v>1.032900373812279</v>
       </c>
       <c r="N7">
-        <v>1.017028296100212</v>
+        <v>1.009920698421977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033434300317005</v>
+        <v>0.9930646034079054</v>
       </c>
       <c r="D8">
-        <v>1.041595544335294</v>
+        <v>1.008252824501733</v>
       </c>
       <c r="E8">
-        <v>1.042168946644643</v>
+        <v>1.009126950126914</v>
       </c>
       <c r="F8">
-        <v>1.051756809334419</v>
+        <v>1.017475027120055</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02731974516229</v>
+        <v>1.046469968539069</v>
       </c>
       <c r="J8">
-        <v>1.038440142538302</v>
+        <v>1.014875917588213</v>
       </c>
       <c r="K8">
-        <v>1.044311516780978</v>
+        <v>1.019322154535631</v>
       </c>
       <c r="L8">
-        <v>1.04488333632153</v>
+        <v>1.020184694213625</v>
       </c>
       <c r="M8">
-        <v>1.054445010311114</v>
+        <v>1.028423378598079</v>
       </c>
       <c r="N8">
-        <v>1.016724313843911</v>
+        <v>1.00858155132558</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031034810697724</v>
+        <v>0.981539746589943</v>
       </c>
       <c r="D9">
-        <v>1.039470112173963</v>
+        <v>0.9986237997371702</v>
       </c>
       <c r="E9">
-        <v>1.040060740659577</v>
+        <v>0.9995845395570329</v>
       </c>
       <c r="F9">
-        <v>1.049505234159502</v>
+        <v>1.007186232841067</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02739657497971</v>
+        <v>1.04569249520439</v>
       </c>
       <c r="J9">
-        <v>1.036865387506529</v>
+        <v>1.007761658938101</v>
       </c>
       <c r="K9">
-        <v>1.042621411398038</v>
+        <v>1.011739244361197</v>
       </c>
       <c r="L9">
-        <v>1.04321012843336</v>
+        <v>1.012684360915268</v>
       </c>
       <c r="M9">
-        <v>1.052624376494518</v>
+        <v>1.020163784541493</v>
       </c>
       <c r="N9">
-        <v>1.016187861319516</v>
+        <v>1.00610613627049</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029438761604544</v>
+        <v>0.9734767545591305</v>
       </c>
       <c r="D10">
-        <v>1.03805750917663</v>
+        <v>0.9919221053437836</v>
       </c>
       <c r="E10">
-        <v>1.038659631503711</v>
+        <v>0.9929446547853685</v>
       </c>
       <c r="F10">
-        <v>1.04800716534549</v>
+        <v>1.000014888277713</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027435832536215</v>
+        <v>1.045059518167687</v>
       </c>
       <c r="J10">
-        <v>1.035816240430935</v>
+        <v>1.002783701952768</v>
       </c>
       <c r="K10">
-        <v>1.041495772584287</v>
+        <v>1.006438756604788</v>
       </c>
       <c r="L10">
-        <v>1.042095754364369</v>
+        <v>1.00744247492818</v>
       </c>
       <c r="M10">
-        <v>1.051410405220917</v>
+        <v>1.014383873917303</v>
       </c>
       <c r="N10">
-        <v>1.015829712085464</v>
+        <v>1.004370641028168</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02874851700642</v>
+        <v>0.9698854717145664</v>
       </c>
       <c r="D11">
-        <v>1.03744688217315</v>
+        <v>0.9889464122478291</v>
       </c>
       <c r="E11">
-        <v>1.03805398410695</v>
+        <v>0.989996818336883</v>
       </c>
       <c r="F11">
-        <v>1.047359208568668</v>
+        <v>0.9968283422958989</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027450007092135</v>
+        <v>1.04475770025339</v>
       </c>
       <c r="J11">
-        <v>1.03536212105457</v>
+        <v>1.000567023036125</v>
       </c>
       <c r="K11">
-        <v>1.0410086301701</v>
+        <v>1.004079837628298</v>
       </c>
       <c r="L11">
-        <v>1.041613489865786</v>
+        <v>1.005109878165464</v>
       </c>
       <c r="M11">
-        <v>1.050884706224684</v>
+        <v>1.011810320328951</v>
       </c>
       <c r="N11">
-        <v>1.015674511988107</v>
+        <v>1.003597129894938</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028492258309641</v>
+        <v>0.9685355813337767</v>
       </c>
       <c r="D12">
-        <v>1.037220225324184</v>
+        <v>0.9878293893337754</v>
       </c>
       <c r="E12">
-        <v>1.03782917734006</v>
+        <v>0.9888903187159789</v>
       </c>
       <c r="F12">
-        <v>1.047118637555887</v>
+        <v>0.9956318350006024</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02745484885297</v>
+        <v>1.04464137372402</v>
       </c>
       <c r="J12">
-        <v>1.035193466879897</v>
+        <v>0.9997339580028503</v>
       </c>
       <c r="K12">
-        <v>1.04082772470032</v>
+        <v>1.003193533511069</v>
       </c>
       <c r="L12">
-        <v>1.041434396320897</v>
+        <v>1.004233503371035</v>
       </c>
       <c r="M12">
-        <v>1.050689433153749</v>
+        <v>1.010843203393927</v>
       </c>
       <c r="N12">
-        <v>1.015616846207986</v>
+        <v>1.003306336554272</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028547220831454</v>
+        <v>0.9688258735623257</v>
       </c>
       <c r="D13">
-        <v>1.037268836856856</v>
+        <v>0.9880695353843163</v>
       </c>
       <c r="E13">
-        <v>1.037877392003723</v>
+        <v>0.9891281993133112</v>
       </c>
       <c r="F13">
-        <v>1.047170235902489</v>
+        <v>0.9958890840567544</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02745382941801</v>
+        <v>1.044666517897834</v>
       </c>
       <c r="J13">
-        <v>1.035229642585803</v>
+        <v>0.9999131002587714</v>
       </c>
       <c r="K13">
-        <v>1.040866527672539</v>
+        <v>1.00338411433024</v>
       </c>
       <c r="L13">
-        <v>1.041472810626521</v>
+        <v>1.004421947269316</v>
       </c>
       <c r="M13">
-        <v>1.050731320100458</v>
+        <v>1.011051168574908</v>
       </c>
       <c r="N13">
-        <v>1.015629216502423</v>
+        <v>1.003368872864526</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028727331951169</v>
+        <v>0.9697742197920872</v>
       </c>
       <c r="D14">
-        <v>1.037428143434245</v>
+        <v>0.9888543216194752</v>
       </c>
       <c r="E14">
-        <v>1.038035398287378</v>
+        <v>0.9899055939024495</v>
       </c>
       <c r="F14">
-        <v>1.047339320663072</v>
+        <v>0.9967297054474046</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02745041594301</v>
+        <v>1.044748171021368</v>
       </c>
       <c r="J14">
-        <v>1.035348179513776</v>
+        <v>1.000498362341197</v>
       </c>
       <c r="K14">
-        <v>1.04099367562797</v>
+        <v>1.004006784532578</v>
       </c>
       <c r="L14">
-        <v>1.041598685096809</v>
+        <v>1.005037642669003</v>
       </c>
       <c r="M14">
-        <v>1.050868564988146</v>
+        <v>1.011730609595747</v>
       </c>
       <c r="N14">
-        <v>1.015669745672845</v>
+        <v>1.003573164762588</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028838321446296</v>
+        <v>0.9703563881776459</v>
       </c>
       <c r="D15">
-        <v>1.037526318337329</v>
+        <v>0.989336282026978</v>
       </c>
       <c r="E15">
-        <v>1.038132772095009</v>
+        <v>0.9903830237807011</v>
       </c>
       <c r="F15">
-        <v>1.047443513844251</v>
+        <v>0.9972459122602634</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027448256726937</v>
+        <v>1.044797919688228</v>
       </c>
       <c r="J15">
-        <v>1.035421217491254</v>
+        <v>1.000857661846015</v>
       </c>
       <c r="K15">
-        <v>1.041072021126693</v>
+        <v>1.004389078255384</v>
       </c>
       <c r="L15">
-        <v>1.041676245966469</v>
+        <v>1.005415659443283</v>
       </c>
       <c r="M15">
-        <v>1.050953125457865</v>
+        <v>1.012147736593619</v>
       </c>
       <c r="N15">
-        <v>1.015694714716571</v>
+        <v>1.003698569823335</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029484588916931</v>
+        <v>0.973712914029325</v>
       </c>
       <c r="D16">
-        <v>1.03809805646853</v>
+        <v>0.9921179844870168</v>
       </c>
       <c r="E16">
-        <v>1.03869984837484</v>
+        <v>0.9931387091922786</v>
       </c>
       <c r="F16">
-        <v>1.048050183316216</v>
+        <v>1.000224599953315</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027434832400708</v>
+        <v>1.04507896022866</v>
       </c>
       <c r="J16">
-        <v>1.035846382443053</v>
+        <v>1.002929484671751</v>
       </c>
       <c r="K16">
-        <v>1.041528108312407</v>
+        <v>1.006593923508485</v>
       </c>
       <c r="L16">
-        <v>1.04212776636726</v>
+        <v>1.007595915686768</v>
       </c>
       <c r="M16">
-        <v>1.051445293358803</v>
+        <v>1.014553134537805</v>
       </c>
       <c r="N16">
-        <v>1.015840009724362</v>
+        <v>1.004421498274402</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029890204664883</v>
+        <v>0.9757909913113028</v>
       </c>
       <c r="D17">
-        <v>1.038456971713958</v>
+        <v>0.9938426808703587</v>
       </c>
       <c r="E17">
-        <v>1.039055840106923</v>
+        <v>0.9948473864282575</v>
       </c>
       <c r="F17">
-        <v>1.048430923886227</v>
+        <v>1.002070827820662</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027425656265166</v>
+        <v>1.04524778946156</v>
       </c>
       <c r="J17">
-        <v>1.036113122723286</v>
+        <v>1.004212361058333</v>
       </c>
       <c r="K17">
-        <v>1.041814271740535</v>
+        <v>1.007959538438541</v>
       </c>
       <c r="L17">
-        <v>1.042411065240536</v>
+        <v>1.008946366841549</v>
       </c>
       <c r="M17">
-        <v>1.051754007013925</v>
+        <v>1.016042645087953</v>
       </c>
       <c r="N17">
-        <v>1.015931117795056</v>
+        <v>1.004868959847094</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030126875954799</v>
+        <v>0.9769935195376162</v>
       </c>
       <c r="D18">
-        <v>1.038666421122527</v>
+        <v>0.9948415897044599</v>
       </c>
       <c r="E18">
-        <v>1.039263584537949</v>
+        <v>0.9958370561354546</v>
       </c>
       <c r="F18">
-        <v>1.048653072504421</v>
+        <v>1.003139903872241</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027420031416848</v>
+        <v>1.045343592389397</v>
       </c>
       <c r="J18">
-        <v>1.03626872400021</v>
+        <v>1.004954772659876</v>
       </c>
       <c r="K18">
-        <v>1.041981211694184</v>
+        <v>1.00874996208446</v>
       </c>
       <c r="L18">
-        <v>1.042576334366507</v>
+        <v>1.009728036411076</v>
       </c>
       <c r="M18">
-        <v>1.051934070390959</v>
+        <v>1.016904657701506</v>
       </c>
       <c r="N18">
-        <v>1.015984248075403</v>
+        <v>1.005127842916586</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030207588727693</v>
+        <v>0.9774019523720223</v>
       </c>
       <c r="D19">
-        <v>1.038737854925088</v>
+        <v>0.9951810097075171</v>
       </c>
       <c r="E19">
-        <v>1.039334437030154</v>
+        <v>0.9961733432255325</v>
       </c>
       <c r="F19">
-        <v>1.048728831121593</v>
+        <v>1.003503128084757</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027418067226576</v>
+        <v>1.045375806922092</v>
       </c>
       <c r="J19">
-        <v>1.036321782738218</v>
+        <v>1.005206934989878</v>
       </c>
       <c r="K19">
-        <v>1.042038138231888</v>
+        <v>1.009018453720972</v>
       </c>
       <c r="L19">
-        <v>1.042632691197749</v>
+        <v>1.009993558233679</v>
       </c>
       <c r="M19">
-        <v>1.051995466622592</v>
+        <v>1.017197445333176</v>
       </c>
       <c r="N19">
-        <v>1.016002362164293</v>
+        <v>1.005215761712109</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029846677398914</v>
+        <v>0.9755690304641601</v>
       </c>
       <c r="D20">
-        <v>1.038418453131197</v>
+        <v>0.9936583737160052</v>
       </c>
       <c r="E20">
-        <v>1.039017635162547</v>
+        <v>0.9946647870774757</v>
       </c>
       <c r="F20">
-        <v>1.048390066871247</v>
+        <v>1.001873556237035</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027426668962902</v>
+        <v>1.045229952447717</v>
       </c>
       <c r="J20">
-        <v>1.036084502336447</v>
+        <v>1.004075331057437</v>
       </c>
       <c r="K20">
-        <v>1.041783566451774</v>
+        <v>1.00781365714026</v>
       </c>
       <c r="L20">
-        <v>1.042380667289332</v>
+        <v>1.008802103023537</v>
       </c>
       <c r="M20">
-        <v>1.051720885373376</v>
+        <v>1.015883541224594</v>
       </c>
       <c r="N20">
-        <v>1.015921343949963</v>
+        <v>1.004821171253738</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028674290154623</v>
+        <v>0.9694954028172634</v>
       </c>
       <c r="D21">
-        <v>1.037381227269681</v>
+        <v>0.9886235503777269</v>
       </c>
       <c r="E21">
-        <v>1.037988865014684</v>
+        <v>0.9896769943543567</v>
       </c>
       <c r="F21">
-        <v>1.047289526396651</v>
+        <v>0.9964825246073572</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027451432803445</v>
+        <v>1.044724243079243</v>
       </c>
       <c r="J21">
-        <v>1.035313272620049</v>
+        <v>1.000326288972347</v>
       </c>
       <c r="K21">
-        <v>1.040956232587902</v>
+        <v>1.003823706719265</v>
       </c>
       <c r="L21">
-        <v>1.041561617064849</v>
+        <v>1.004856614480664</v>
       </c>
       <c r="M21">
-        <v>1.050828149919698</v>
+        <v>1.011530844476311</v>
       </c>
       <c r="N21">
-        <v>1.015657811324139</v>
+        <v>1.00351310327167</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027937909623808</v>
+        <v>0.9655840149864574</v>
       </c>
       <c r="D22">
-        <v>1.036729992280887</v>
+        <v>0.9853898158354079</v>
       </c>
       <c r="E22">
-        <v>1.037342948996361</v>
+        <v>0.9864738553041785</v>
       </c>
       <c r="F22">
-        <v>1.046598204101677</v>
+        <v>0.9930180706879589</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027464554218061</v>
+        <v>1.044381851410172</v>
       </c>
       <c r="J22">
-        <v>1.034828520558251</v>
+        <v>0.9979127697649751</v>
       </c>
       <c r="K22">
-        <v>1.040436292084302</v>
+        <v>1.001256367818285</v>
       </c>
       <c r="L22">
-        <v>1.041046885111655</v>
+        <v>1.002318115846088</v>
       </c>
       <c r="M22">
-        <v>1.050266823025508</v>
+        <v>1.008729121531389</v>
       </c>
       <c r="N22">
-        <v>1.015492016511784</v>
+        <v>1.002670461162768</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028328208042741</v>
+        <v>0.9676666209953154</v>
       </c>
       <c r="D23">
-        <v>1.037075137655422</v>
+        <v>0.9871107603861458</v>
       </c>
       <c r="E23">
-        <v>1.037685274434744</v>
+        <v>0.9881784791528011</v>
       </c>
       <c r="F23">
-        <v>1.046964626875541</v>
+        <v>0.9948619780991319</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027457830072975</v>
+        <v>1.044565693817471</v>
       </c>
       <c r="J23">
-        <v>1.035085482279923</v>
+        <v>0.9991977392097994</v>
       </c>
       <c r="K23">
-        <v>1.040711899619378</v>
+        <v>1.002623108729355</v>
       </c>
       <c r="L23">
-        <v>1.041319731461187</v>
+        <v>1.003669480596506</v>
       </c>
       <c r="M23">
-        <v>1.050564395362462</v>
+        <v>1.010220722651521</v>
       </c>
       <c r="N23">
-        <v>1.015579916975261</v>
+        <v>1.003119136175283</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029866345241864</v>
+        <v>0.9756693545523887</v>
       </c>
       <c r="D24">
-        <v>1.038435857711133</v>
+        <v>0.9937416760113078</v>
       </c>
       <c r="E24">
-        <v>1.039034898022004</v>
+        <v>0.9947473173675884</v>
       </c>
       <c r="F24">
-        <v>1.048408528184251</v>
+        <v>1.001962718822223</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027426212210668</v>
+        <v>1.045238020481014</v>
       </c>
       <c r="J24">
-        <v>1.036097434607322</v>
+        <v>1.00413726711554</v>
       </c>
       <c r="K24">
-        <v>1.041797440770798</v>
+        <v>1.00787959348371</v>
       </c>
       <c r="L24">
-        <v>1.042394402735689</v>
+        <v>1.00886730821772</v>
       </c>
       <c r="M24">
-        <v>1.051735851629684</v>
+        <v>1.015955454366821</v>
       </c>
       <c r="N24">
-        <v>1.015925760365454</v>
+        <v>1.004842771381847</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031654502158514</v>
+        <v>0.9845830004222281</v>
       </c>
       <c r="D25">
-        <v>1.040018825126043</v>
+        <v>1.001160724298863</v>
       </c>
       <c r="E25">
-        <v>1.040604998631088</v>
+        <v>1.00209839590394</v>
       </c>
       <c r="F25">
-        <v>1.050086800683031</v>
+        <v>1.00989884291831</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027378825560503</v>
+        <v>1.045913533684514</v>
       </c>
       <c r="J25">
-        <v>1.037272381243577</v>
+        <v>1.009640585427944</v>
       </c>
       <c r="K25">
-        <v>1.043058154601287</v>
+        <v>1.013741048200913</v>
       </c>
       <c r="L25">
-        <v>1.043642503344677</v>
+        <v>1.014664224082105</v>
       </c>
       <c r="M25">
-        <v>1.053095097291619</v>
+        <v>1.022345411275812</v>
       </c>
       <c r="N25">
-        <v>1.016326639371141</v>
+        <v>1.006760534192534</v>
       </c>
     </row>
   </sheetData>
